--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\api-client\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\api-client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3620C1-B4BF-475F-877F-D66C520917E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA6680C-0040-42EE-BC0B-4D9D7CACA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="208">
   <si>
     <t>项目名称</t>
   </si>
@@ -112,9 +112,6 @@
     <t>工人类型</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -125,81 +122,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>湖北省郧西县土门镇龙谭村</t>
-  </si>
-  <si>
-    <t>湖北省郧西县马安镇石塔河村</t>
-  </si>
-  <si>
-    <t>湖北省郧西县马安镇石塔下河村</t>
-  </si>
-  <si>
-    <t>陕西省白河县宋家镇联络村</t>
-  </si>
-  <si>
-    <t>郑州市郑州矿区建井处院11排8号</t>
-  </si>
-  <si>
-    <t>13991525879</t>
-  </si>
-  <si>
-    <t>陕西省安康市旬阳县赵湾镇高东村</t>
-  </si>
-  <si>
-    <t>15072262177</t>
-  </si>
-  <si>
-    <t>湖北省谷城县紫金镇洪峪村三组</t>
-  </si>
-  <si>
-    <t>15997313779</t>
-  </si>
-  <si>
-    <t>湖北省谷城县紫金镇倒沟村二组</t>
-  </si>
-  <si>
-    <t>18820232548</t>
-  </si>
-  <si>
-    <t>湖北省谷城县紫金镇蒋家坡村</t>
-  </si>
-  <si>
-    <t>18272058282</t>
-  </si>
-  <si>
-    <t>湖北省谷城县紫金镇洪峪村</t>
-  </si>
-  <si>
-    <t>18672713956</t>
-  </si>
-  <si>
-    <t>湖北省谷城县城关镇吴家营社区八组</t>
-  </si>
-  <si>
-    <t>17771111461</t>
-  </si>
-  <si>
-    <t>谷城县冷集镇冷家沟村</t>
-  </si>
-  <si>
-    <t>云南省昆明市禄劝彝族苗族自治县东德镇新村村委会大坝塘村50号</t>
-  </si>
-  <si>
-    <t>湖北省宜昌市夷陵区樟村坪镇羊角山村四组</t>
-  </si>
-  <si>
-    <t>四川省会东县乌东德镇洪门渡村4组42号</t>
-  </si>
-  <si>
-    <t>四川省宜宾县喜捷镇五桂村狄安组</t>
-  </si>
-  <si>
-    <t>云南省水富市云富街道明月路中心小区6栋6层2号</t>
-  </si>
-  <si>
-    <t>四川省会东县乌东德镇元宝山村7组9号</t>
   </si>
   <si>
     <t>2031-01-01</t>
@@ -209,142 +131,526 @@
     <t>2025-07-23</t>
   </si>
   <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-06-25</t>
-  </si>
-  <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
-    <t>2024-12-06</t>
-  </si>
-  <si>
-    <t>方龙坤</t>
-  </si>
-  <si>
-    <t>420322198203130956</t>
-  </si>
-  <si>
-    <t>方顺天</t>
-  </si>
-  <si>
-    <t>422623197005060934</t>
-  </si>
-  <si>
-    <t>吕尚斌</t>
-  </si>
-  <si>
-    <t>42262319780320631X</t>
-  </si>
-  <si>
-    <t>潘忠刚</t>
-  </si>
-  <si>
-    <t>420322197412156330</t>
-  </si>
-  <si>
-    <t>陈建兵</t>
-  </si>
-  <si>
-    <t>612430197801141610</t>
-  </si>
-  <si>
-    <t>周国强</t>
-  </si>
-  <si>
-    <t>41010119750215203X</t>
-  </si>
-  <si>
-    <t>张继平</t>
-  </si>
-  <si>
-    <t>612429196803105357</t>
-  </si>
-  <si>
-    <t>陈建军</t>
-  </si>
-  <si>
-    <t>420625198402015913</t>
-  </si>
-  <si>
-    <t>陈圣辉</t>
-  </si>
-  <si>
-    <t>420625197506135616</t>
-  </si>
-  <si>
-    <t>阮云保</t>
-  </si>
-  <si>
-    <t>420625197511205914</t>
-  </si>
-  <si>
-    <t>乐建成</t>
-  </si>
-  <si>
-    <t>420625196811255919</t>
-  </si>
-  <si>
-    <t>岳建华</t>
-  </si>
-  <si>
-    <t>420625197609045912</t>
-  </si>
-  <si>
-    <t>李天美</t>
-  </si>
-  <si>
-    <t>420625198310034455</t>
-  </si>
-  <si>
-    <t>陈明军</t>
-  </si>
-  <si>
-    <t>420625197808095912</t>
-  </si>
-  <si>
-    <t>徐宽宝</t>
-  </si>
-  <si>
-    <t>530128200010293911</t>
-  </si>
-  <si>
-    <t>任艳丽</t>
-  </si>
-  <si>
-    <t>422721197809280724</t>
-  </si>
-  <si>
-    <t>罗登成</t>
-  </si>
-  <si>
-    <t>513426197512132737</t>
-  </si>
-  <si>
-    <t>李正彬</t>
-  </si>
-  <si>
-    <t>512527196902197698</t>
-  </si>
-  <si>
-    <t>陈兴珍</t>
-  </si>
-  <si>
-    <t>512535197503066425</t>
-  </si>
-  <si>
-    <t>秦顺林</t>
-  </si>
-  <si>
-    <t>513426198112203115</t>
+    <t>方家锋</t>
+  </si>
+  <si>
+    <t>530302199609163015</t>
+  </si>
+  <si>
+    <t>云南省曲靖市麒龉区潇湘街道冷家电村委会冷家屯小村128号</t>
+  </si>
+  <si>
+    <t>张红梅</t>
+  </si>
+  <si>
+    <t>511303199310132488</t>
+  </si>
+  <si>
+    <t>四川省南充市高坪区东观镇荒草堰村7组328号</t>
+  </si>
+  <si>
+    <t>陈启军</t>
+  </si>
+  <si>
+    <t>622625198112023113</t>
+  </si>
+  <si>
+    <t>甘肃省康县铜钱乡郝家坪村低垭子社</t>
+  </si>
+  <si>
+    <t>项三亮</t>
+  </si>
+  <si>
+    <t>41232519720702213X</t>
+  </si>
+  <si>
+    <t>河南省睢县后台乡胡岗村433号</t>
+  </si>
+  <si>
+    <t>李庆宇</t>
+  </si>
+  <si>
+    <t>532224197501203914</t>
+  </si>
+  <si>
+    <t>云南省宣威市阿都乡谷兴村委会谷兴村105号</t>
+  </si>
+  <si>
+    <t>严杰</t>
+  </si>
+  <si>
+    <t>532801200009013716</t>
+  </si>
+  <si>
+    <t>云南省西双版纳傣族自治州景洪市民航路66号7栋2单元501号</t>
+  </si>
+  <si>
+    <t>谭大才</t>
+  </si>
+  <si>
+    <t>422823198010151617</t>
+  </si>
+  <si>
+    <t>湖北省巴东县茶店子镇东南峡村二组17号</t>
+  </si>
+  <si>
+    <t>方国华</t>
+  </si>
+  <si>
+    <t>42062619731230051X</t>
+  </si>
+  <si>
+    <t>湖北省保康县过渡湾镇二堂村2组</t>
+  </si>
+  <si>
+    <t>李万登</t>
+  </si>
+  <si>
+    <t>420626198804182016</t>
+  </si>
+  <si>
+    <t>湖北省保康县马桥镇唐二河村5组</t>
+  </si>
+  <si>
+    <t>刘思海</t>
+  </si>
+  <si>
+    <t>513433198902200617</t>
+  </si>
+  <si>
+    <t>四川省冕宁县回龙镇石古村6组40号</t>
+  </si>
+  <si>
+    <t>刘思忠</t>
+  </si>
+  <si>
+    <t>513433198304140618</t>
+  </si>
+  <si>
+    <t>卢明亮</t>
+  </si>
+  <si>
+    <t>513433198012070611</t>
+  </si>
+  <si>
+    <t>四川省冕宁县回龙乡石古村5组21号</t>
+  </si>
+  <si>
+    <t>卢成海</t>
+  </si>
+  <si>
+    <t>330326197103185617</t>
+  </si>
+  <si>
+    <t>浙江省平阳县水头镇</t>
+  </si>
+  <si>
+    <t>定国程</t>
+  </si>
+  <si>
+    <t>422302198512234114</t>
+  </si>
+  <si>
+    <t>湖北省赤壁市赤壁镇赤壁路18-2号</t>
+  </si>
+  <si>
+    <t>吴文军</t>
+  </si>
+  <si>
+    <t>420625198305114418</t>
+  </si>
+  <si>
+    <t>湖北省谷城县石花镇彭家湾村</t>
+  </si>
+  <si>
+    <t>唐永明</t>
+  </si>
+  <si>
+    <t>511227197810163973</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县文峰镇长兴村3组</t>
+  </si>
+  <si>
+    <t>李金铖</t>
+  </si>
+  <si>
+    <t>51130319971220355X</t>
+  </si>
+  <si>
+    <t>四川省南充市高坪区青居镇国光村四78号组</t>
+  </si>
+  <si>
+    <t>辜贵豪</t>
+  </si>
+  <si>
+    <t>513822200407258152</t>
+  </si>
+  <si>
+    <t>陈从军</t>
+  </si>
+  <si>
+    <t>420625197312213815</t>
+  </si>
+  <si>
+    <t>湖北省谷城县石花镇土桥沟村6组</t>
+  </si>
+  <si>
+    <t>李永忠</t>
+  </si>
+  <si>
+    <t>420626197411127011</t>
+  </si>
+  <si>
+    <t>湖北省保康县黄堡镇天鹅村4组</t>
+  </si>
+  <si>
+    <t>朱兴明</t>
+  </si>
+  <si>
+    <t>420624196904054714</t>
+  </si>
+  <si>
+    <t>湖北省南漳县长坪镇赵岭村三组</t>
+  </si>
+  <si>
+    <t>唐彬</t>
+  </si>
+  <si>
+    <t>500238199801223976</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县文峰镇长兴村3组78号</t>
+  </si>
+  <si>
+    <t>韩朝贵</t>
+  </si>
+  <si>
+    <t>532233197012213851</t>
+  </si>
+  <si>
+    <t>云南省曲靖市会泽县新街回族乡闸塘村委会9组</t>
+  </si>
+  <si>
+    <t>张铁关</t>
+  </si>
+  <si>
+    <t>142729196803141837</t>
+  </si>
+  <si>
+    <t>山西省闻喜县礼元镇下寨村345号</t>
+  </si>
+  <si>
+    <t>林生</t>
+  </si>
+  <si>
+    <t>142602198005152519</t>
+  </si>
+  <si>
+    <t>山西省侯马市上马办事处卫家庄村3区284号</t>
+  </si>
+  <si>
+    <t>胡华三</t>
+  </si>
+  <si>
+    <t>50023819851202399X</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县塘坊镇塘坊村1组367号</t>
+  </si>
+  <si>
+    <t>周小平</t>
+  </si>
+  <si>
+    <t>512228197403243770</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县塘坊镇梓树村8组86号</t>
+  </si>
+  <si>
+    <t>胡怀全</t>
+  </si>
+  <si>
+    <t>511227197406111178</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县棱角乡石安村5组177号</t>
+  </si>
+  <si>
+    <t>杜发财</t>
+  </si>
+  <si>
+    <t>512228197303163992</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县文峰镇三宝村1组97号</t>
+  </si>
+  <si>
+    <t>杨维国</t>
+  </si>
+  <si>
+    <t>420624198105024710</t>
+  </si>
+  <si>
+    <t>湖北省南漳县长坪镇赵岭村一组</t>
+  </si>
+  <si>
+    <t>陈亚健</t>
+  </si>
+  <si>
+    <t>430529199009203770</t>
+  </si>
+  <si>
+    <t>湖南省城步苗族自治县丹口镇易家田村2组</t>
+  </si>
+  <si>
+    <t>胡寿三</t>
+  </si>
+  <si>
+    <t>512226197206116198</t>
+  </si>
+  <si>
+    <t>重庆市奉节县龙桥乡金龙村4组44号</t>
+  </si>
+  <si>
+    <t>刘远平</t>
+  </si>
+  <si>
+    <t>511227197605134655</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县文峰镇正溪村2组104号</t>
+  </si>
+  <si>
+    <t>李松</t>
+  </si>
+  <si>
+    <t>522324199401074011</t>
+  </si>
+  <si>
+    <t>贵州省晴隆县马场乡茶际村九组</t>
+  </si>
+  <si>
+    <t>毛继承</t>
+  </si>
+  <si>
+    <t>42062419880605471X</t>
+  </si>
+  <si>
+    <t>湖北省南漳县长坪镇赵岭村四组</t>
+  </si>
+  <si>
+    <t>杨孝安</t>
+  </si>
+  <si>
+    <t>612429197512145353</t>
+  </si>
+  <si>
+    <t>陕西省旬阳县赵湾镇金元村106号</t>
+  </si>
+  <si>
+    <t>孙昌友</t>
+  </si>
+  <si>
+    <t>612429197909235357</t>
+  </si>
+  <si>
+    <t>陕西省旬阳县赵湾镇邱家坡村45号</t>
+  </si>
+  <si>
+    <t>王道荣</t>
+  </si>
+  <si>
+    <t>512228197108282099</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县长桂乡金桂村2组</t>
+  </si>
+  <si>
+    <t>杨贵</t>
+  </si>
+  <si>
+    <t>422626197203235431</t>
+  </si>
+  <si>
+    <t>湖北省谷城县紫金镇官坊村一组</t>
+  </si>
+  <si>
+    <t>阮班友</t>
+  </si>
+  <si>
+    <t>420626196802112517</t>
+  </si>
+  <si>
+    <t>湖北省保康县城关镇土门村7组</t>
+  </si>
+  <si>
+    <t>韩红飞</t>
+  </si>
+  <si>
+    <t>530324199708250331</t>
+  </si>
+  <si>
+    <t>云南省曲靖市罗平县罗雄街道中和村委会泥卡小寨11号</t>
+  </si>
+  <si>
+    <t>韩在能</t>
+  </si>
+  <si>
+    <t>530324198101080319</t>
+  </si>
+  <si>
+    <t>云南省曲靖市罗平县罗雄镇羊者窝村委会勒泥朵村19号</t>
+  </si>
+  <si>
+    <t>林万成</t>
+  </si>
+  <si>
+    <t>511227197412281018</t>
+  </si>
+  <si>
+    <t>重庆市巫溪县胜利乡果园村1组47号</t>
+  </si>
+  <si>
+    <t>伍德兵</t>
+  </si>
+  <si>
+    <t>420800197011271812</t>
+  </si>
+  <si>
+    <t>湖北省荆门市东宝区子棱镇建泉村八组271号</t>
+  </si>
+  <si>
+    <t>周保新</t>
+  </si>
+  <si>
+    <t>532723198504084530</t>
+  </si>
+  <si>
+    <t>云南省普洱市墨江哈尼族自治县龙坝镇竜宾村民委员会河阿村民小组18号</t>
+  </si>
+  <si>
+    <t>周才龙</t>
+  </si>
+  <si>
+    <t>532723199204154511</t>
+  </si>
+  <si>
+    <t>云南省普洱市墨江哈尼族自治县龙坝镇竜宾村民委员会河阿组5号</t>
+  </si>
+  <si>
+    <t>李义明</t>
+  </si>
+  <si>
+    <t>532529198307024210</t>
+  </si>
+  <si>
+    <t>云南省红河哈尼族彝族自治州红河县三村乡车同村委会达河村27号</t>
+  </si>
+  <si>
+    <t>周黑兴</t>
+  </si>
+  <si>
+    <t>532723198312224519</t>
+  </si>
+  <si>
+    <t>云南省普洱市墨江哈尼族自治县龙坝镇竜宾村民委员会河阿村民小组14号</t>
+  </si>
+  <si>
+    <t>章立华</t>
+  </si>
+  <si>
+    <t>420624197608084710</t>
+  </si>
+  <si>
+    <t>湖北省南漳县长坪镇东园村二组</t>
+  </si>
+  <si>
+    <t>朱本耀</t>
+  </si>
+  <si>
+    <t>420625198406285910</t>
+  </si>
+  <si>
+    <t>湖北省谷城县紫金镇锡锋河村一组</t>
+  </si>
+  <si>
+    <t>陈启林</t>
+  </si>
+  <si>
+    <t>420625197106165912</t>
+  </si>
+  <si>
+    <t>湖北省谷城县石花镇高家冲村2组</t>
+  </si>
+  <si>
+    <t>严保东</t>
+  </si>
+  <si>
+    <t>420619197106236939</t>
+  </si>
+  <si>
+    <t>湖北省宜城市</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
   </si>
 </sst>
 </file>
@@ -4877,10 +5183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4934,702 +5240,1822 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5">
+        <v>19813133690</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="5">
-        <v>15326938738</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5">
+        <v>15196797946</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5">
-        <v>15075587970</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5">
+        <v>18794996322</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5">
-        <v>13636197339</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="5">
+        <v>15196797946</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5">
-        <v>18772891026</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="5">
+        <v>15969131061</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5">
-        <v>15926819658</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5">
+        <v>18288049048</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5">
-        <v>13607645461</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5">
+        <v>18371827667</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="5">
+        <v>15196797946</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="5">
+        <v>18771576876</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="5">
+        <v>15883472739</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="5">
+        <v>18783439765</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="5">
+        <v>15883472739</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="5">
+        <v>15212969999</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5">
-        <v>16675880275</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="5">
+        <v>18062336669</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="5">
+        <v>19571274667</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5">
-        <v>15912187551</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5">
+        <v>17823029795</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="5">
-        <v>13687176869</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="5">
+        <v>17809584285</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="5">
-        <v>18781569237</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="5">
+        <v>17360626924</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5">
-        <v>13116289039</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5">
+        <v>17809584285</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="5">
-        <v>15187055463</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5">
+        <v>13886225177</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18271231505</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15123059601</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15911958527</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="2">
+        <v>18235947689</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E26" s="2">
+        <v>15935724970</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5">
-        <v>15183645826</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="1" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13594743194</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2">
+        <v>18062336669</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15123059601</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15271061678</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13594743194</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2">
+        <v>18271231505</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15271061678</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2">
+        <v>13896200108</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2">
+        <v>18748807307</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17360626924</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2">
+        <v>15929520813</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18291583129</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>18696827876</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15264585335</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>13807270197</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2">
+        <v>15287869254</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>15987475970</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2">
+        <v>15310039927</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15264585335</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15891966455</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2">
+        <v>15894469307</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="2">
+        <v>15752599350</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="2">
+        <v>18313380812</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="2">
+        <v>18727017168</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="2">
+        <v>18313380812</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="2">
+        <v>15287869254</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15287869257</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5638,13 +7064,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K21" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K53" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I21" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I53" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ON_JOB,DISMISSED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J53" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"010,020,030,040,050,060,070,080,090,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310,320,330,340,350,360,370,380,390,400,900,1000"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\api-client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175A137-6614-4C25-BACD-755A9E0E2035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08262098-E1FF-49E4-A491-6FC9F67C8242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">花名册!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">考勤数据模板!$A$1:$M$660</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="195">
   <si>
     <t>项目名称</t>
   </si>
@@ -121,725 +121,509 @@
     <t>90</t>
   </si>
   <si>
-    <t>岳明俊</t>
-  </si>
-  <si>
-    <t>532101197209101814</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>15752901646</t>
-  </si>
-  <si>
-    <t>云南省昭通市昭阳区太平街道办事处黄竹林社区居民委员会二十八户村6号</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
     <t>2028-10-10</t>
   </si>
   <si>
-    <t>贾玉博</t>
-  </si>
-  <si>
-    <t>622625198901111810</t>
-  </si>
-  <si>
-    <t>15193957996</t>
-  </si>
-  <si>
-    <t>甘肃省康县王坝镇王家坝村朱庄社</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
-    <t>贾玉玺</t>
-  </si>
-  <si>
-    <t>62262519861001181X</t>
-  </si>
-  <si>
-    <t>15193977799</t>
-  </si>
-  <si>
-    <t>甘肃省康县王坝镇何家庄村寇庄社</t>
-  </si>
-  <si>
-    <t>谢敬生</t>
-  </si>
-  <si>
-    <t>430124198204269574</t>
-  </si>
-  <si>
-    <t>13755181574</t>
-  </si>
-  <si>
-    <t>湖南省宁乡县煤炭坝镇棤树村尚志组21号</t>
-  </si>
-  <si>
-    <t>2025-07-23</t>
-  </si>
-  <si>
-    <t>辛文礼</t>
-  </si>
-  <si>
-    <t>622625198303201816</t>
-  </si>
-  <si>
-    <t>18294735514</t>
-  </si>
-  <si>
-    <t>2025-06-08</t>
-  </si>
-  <si>
-    <t>林仁康</t>
-  </si>
-  <si>
-    <t>522423198709226231</t>
-  </si>
-  <si>
-    <t>15085374455</t>
-  </si>
-  <si>
-    <t>贵州省黔西县城关镇金凤村第1组</t>
-  </si>
-  <si>
-    <t>李良权</t>
-  </si>
-  <si>
-    <t>522523197012193012</t>
-  </si>
-  <si>
-    <t>18286157506</t>
-  </si>
-  <si>
-    <t>贵州省息烽县养龙司乡坪山村中坪山组</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>刘朝建</t>
-  </si>
-  <si>
-    <t>522522196909117232</t>
-  </si>
-  <si>
-    <t>18798625581</t>
-  </si>
-  <si>
-    <t>贵州省开阳县毛云乡毛栗庄村双井组</t>
-  </si>
-  <si>
-    <t>郭小华</t>
-  </si>
-  <si>
-    <t>512501197211107754</t>
-  </si>
-  <si>
-    <t>18689321658</t>
-  </si>
-  <si>
-    <t>四川省宜宾市翠屏区金坪镇一步滩村7组9号</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>程长华</t>
-  </si>
-  <si>
-    <t>420321196704015432</t>
-  </si>
-  <si>
-    <t>湖北省十堰市郧阳区南化塘镇马纵岭回族村2组</t>
-  </si>
-  <si>
-    <t>2025-07-13</t>
-  </si>
-  <si>
-    <t>李杰</t>
-  </si>
-  <si>
-    <t>622621198611124415</t>
-  </si>
-  <si>
-    <t>15339391810</t>
-  </si>
-  <si>
-    <t>甘肃省陇南市武都区玉皇多玉皇坪行政村李家河坝社001号</t>
-  </si>
-  <si>
-    <t>李中洪</t>
-  </si>
-  <si>
-    <t>500102199910269058</t>
-  </si>
-  <si>
-    <t>17323761302</t>
-  </si>
-  <si>
-    <t>重庆市涪陵区珍溪镇大林村6组3号</t>
-  </si>
-  <si>
-    <t>陈宇丰</t>
-  </si>
-  <si>
-    <t>500102199312188135</t>
-  </si>
-  <si>
-    <t>重庆市涪陵区清溪镇全心村3组68号</t>
-  </si>
-  <si>
-    <t>邓强</t>
-  </si>
-  <si>
-    <t>510202197309173213</t>
-  </si>
-  <si>
-    <t>重庆市江北区和顺路238号5幢4-8</t>
-  </si>
-  <si>
-    <t>王连克</t>
-  </si>
-  <si>
-    <t>412922196907201613</t>
-  </si>
-  <si>
-    <t>16638736150</t>
-  </si>
-  <si>
-    <t>河南省方城县柳河乡邢庵村北郭庄47号附1号</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>秦云玲</t>
-  </si>
-  <si>
-    <t>412922197303056114</t>
-  </si>
-  <si>
-    <t>19917103770</t>
-  </si>
-  <si>
-    <t>河南省方城县袁店乡辛庄村辛庄83号</t>
-  </si>
-  <si>
-    <t>向小松</t>
-  </si>
-  <si>
-    <t>522125198212081010</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>18786343424</t>
-  </si>
-  <si>
-    <t>贵州省道真仡佬族苗族自治县河口乡幸民村方田组</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>王友强</t>
-  </si>
-  <si>
-    <t>52212519750218251X</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>19985423277</t>
-  </si>
-  <si>
-    <t>贵州省道真仡佬族苗族自治县忠信镇新华村站岭岩组</t>
-  </si>
-  <si>
-    <t>程晓勇</t>
-  </si>
-  <si>
-    <t>522125197807091053</t>
-  </si>
-  <si>
-    <t>15085527954</t>
-  </si>
-  <si>
-    <t>贵州省道真仡佬族苗族自治县河口乡梅江村桃子台租</t>
-  </si>
-  <si>
-    <t>王正修</t>
-  </si>
-  <si>
-    <t>522125197409142556</t>
-  </si>
-  <si>
-    <t>18786957677</t>
-  </si>
-  <si>
-    <t>肖阳彬</t>
-  </si>
-  <si>
-    <t>510232197810182832</t>
-  </si>
-  <si>
-    <t>重庆市璧山区来凤街道安乐村1组96号</t>
-  </si>
-  <si>
-    <t>聂勋明</t>
-  </si>
-  <si>
-    <t>510225196710091177</t>
-  </si>
-  <si>
-    <t>15922866488</t>
-  </si>
-  <si>
-    <t>重庆市江津市油溪镇永竹村3组</t>
-  </si>
-  <si>
-    <t>白菊珍</t>
-  </si>
-  <si>
-    <t>500242198907052888</t>
-  </si>
-  <si>
-    <t>18996005771</t>
-  </si>
-  <si>
-    <t>重庆市酉阳县车田乡车田村3组74号</t>
-  </si>
-  <si>
-    <t>李俊松</t>
-  </si>
-  <si>
-    <t>532530199102123215</t>
-  </si>
-  <si>
-    <t>13529496079</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县沙依坡乡小汗田村</t>
-  </si>
-  <si>
-    <t>黄成保</t>
-  </si>
-  <si>
-    <t>532530198809033219</t>
-  </si>
-  <si>
-    <t>15126169730</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县沙依坡乡青龙坡二村</t>
-  </si>
-  <si>
-    <t>陈井打</t>
-  </si>
-  <si>
-    <t>532530198909143212</t>
-  </si>
-  <si>
-    <t>15750090411</t>
-  </si>
-  <si>
-    <t>黄劳本</t>
-  </si>
-  <si>
-    <t>532530198706233226</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13648738913</t>
-  </si>
-  <si>
-    <t>黄小妹</t>
-  </si>
-  <si>
-    <t>53253019891106322X</t>
-  </si>
-  <si>
-    <t>15094186756</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县沙依坡乡麻栗坡村</t>
-  </si>
-  <si>
-    <t>何进祥</t>
-  </si>
-  <si>
-    <t>53253019880702321X</t>
-  </si>
-  <si>
-    <t>15154946470</t>
-  </si>
-  <si>
-    <t>何晓芸</t>
-  </si>
-  <si>
-    <t>532530198901173222</t>
-  </si>
-  <si>
-    <t>18787345821</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县沙依坡乡汗田村</t>
-  </si>
-  <si>
-    <t>王丽梅</t>
-  </si>
-  <si>
-    <t>532530199110083241</t>
-  </si>
-  <si>
-    <t>18787395772</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县阿得博乡等口上寨村</t>
-  </si>
-  <si>
-    <t>黄阿惹</t>
-  </si>
-  <si>
-    <t>53252819810919153X</t>
-  </si>
-  <si>
-    <t>18314046209</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州元阳县逢春岭乡坝思村委会下坝思村小组</t>
-  </si>
-  <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
-    <t>普明剥</t>
-  </si>
-  <si>
-    <t>532528198306121549</t>
-  </si>
-  <si>
-    <t>15812714694</t>
-  </si>
-  <si>
-    <t>曹加华</t>
-  </si>
-  <si>
-    <t>532530197911241618</t>
-  </si>
-  <si>
-    <t>15126323173</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县阿得博乡老乌寨村民小组</t>
-  </si>
-  <si>
-    <t>李毛背</t>
-  </si>
-  <si>
-    <t>532530198005021626</t>
-  </si>
-  <si>
-    <t>15925329140</t>
-  </si>
-  <si>
-    <t>王万凤</t>
-  </si>
-  <si>
-    <t>321088197704245111</t>
-  </si>
-  <si>
-    <t>13235295571</t>
-  </si>
-  <si>
-    <t>江苏省扬州市江都区邵伯镇昭关坝村新二组38号</t>
-  </si>
-  <si>
-    <t>康龙</t>
-  </si>
-  <si>
-    <t>210682197907135455</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>15841585478</t>
-  </si>
-  <si>
-    <t>辽宁省丹东市振安区汤山城镇汤山城村五组324</t>
-  </si>
-  <si>
-    <t>2025-06-21</t>
-  </si>
-  <si>
-    <t>曹家德</t>
-  </si>
-  <si>
-    <t>532530197905081611</t>
-  </si>
-  <si>
-    <t>15094123295</t>
-  </si>
-  <si>
-    <t>云南省红河哈尼族彝族自治州金平苗族瑶族傣族自治县阿得博乡箐口新寨村</t>
-  </si>
-  <si>
-    <t>陈为本</t>
-  </si>
-  <si>
-    <t>532528198407181727</t>
-  </si>
-  <si>
-    <t>19869110998</t>
-  </si>
-  <si>
-    <t>陈爱红</t>
-  </si>
-  <si>
-    <t>41042219730403441X</t>
-  </si>
-  <si>
-    <t>13283052815</t>
-  </si>
-  <si>
-    <t>河南省叶县辛店乡大徐村小徐村徐黄东组</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>陈红兴</t>
-  </si>
-  <si>
-    <t>410422196701024317</t>
-  </si>
-  <si>
-    <t>13461154069</t>
-  </si>
-  <si>
-    <t>河南省叶县辛店乡大徐村徐黄东组</t>
-  </si>
-  <si>
-    <t>孙云芳</t>
-  </si>
-  <si>
-    <t>420921197012164821</t>
-  </si>
-  <si>
-    <t>15071155950</t>
-  </si>
-  <si>
-    <t>武汉市东西湖区辛安渡办事处金汇村2号</t>
-  </si>
-  <si>
-    <t>张祥发</t>
-  </si>
-  <si>
-    <t>420112196807080336</t>
-  </si>
-  <si>
-    <t>13006184283</t>
-  </si>
-  <si>
-    <t>胡锦德</t>
-  </si>
-  <si>
-    <t>512926196802172130</t>
-  </si>
-  <si>
-    <t>18381782328</t>
-  </si>
-  <si>
-    <t>四川省蓬安县金溪镇金山村一组3号</t>
-  </si>
-  <si>
-    <t>司振亚</t>
-  </si>
-  <si>
-    <t>410422197503244313</t>
-  </si>
-  <si>
-    <t>18749606271</t>
-  </si>
-  <si>
-    <t>河南省叶县辛店乡大徐村五组</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>李代全</t>
-  </si>
-  <si>
-    <t>512926197112121613</t>
-  </si>
-  <si>
-    <t>17361390572</t>
-  </si>
-  <si>
-    <t>四川省蓬安县长梁乡谢家沟村十组6号</t>
-  </si>
-  <si>
-    <t>2025-06-14</t>
-  </si>
-  <si>
-    <t>白战伟</t>
-  </si>
-  <si>
-    <t>411081197711187252</t>
-  </si>
-  <si>
-    <t>13839013720</t>
-  </si>
-  <si>
-    <t>河南省禹州市许洛路韩城办西十里村4组</t>
-  </si>
-  <si>
-    <t>付青海</t>
-  </si>
-  <si>
-    <t>61242719881130271X</t>
-  </si>
-  <si>
-    <t>13992526207</t>
-  </si>
-  <si>
-    <t>陕西省安康市平利县广佛镇广佛村二组676号</t>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2028-10-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_JOB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉大道、科学岛东路、科学岛南路、科学岛西路、科学岛北路项目工程总承包（EPC）一标段</t>
+  </si>
+  <si>
+    <t>龙泉大道、科学岛东路、科学岛南路、科学岛西路、科学岛北路项目工程总承包（EPC）一标段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉鑫宸泰华建筑有限公司</t>
+  </si>
+  <si>
+    <t>91420107MA4KREKY3Q</t>
+  </si>
+  <si>
+    <t>湖北百禾园林有限公司</t>
+  </si>
+  <si>
+    <t>91420000MA4880FL25</t>
+  </si>
+  <si>
+    <t>武汉佳和御境园林景观工程有限公司</t>
+  </si>
+  <si>
+    <t>91420115MA4L0P7E0F</t>
+  </si>
+  <si>
+    <t>武汉狮门交通工程有限公司</t>
+  </si>
+  <si>
+    <t>91420112MA4KT86N9W</t>
+  </si>
+  <si>
+    <t>湖北鑫丰瑞泰建设工程有限公司</t>
+  </si>
+  <si>
+    <t>91420113MA4KXX213B</t>
+  </si>
+  <si>
+    <t>鑫宸泰华</t>
+  </si>
+  <si>
+    <t>叶传波</t>
+  </si>
+  <si>
+    <t>420122197006253214</t>
+  </si>
+  <si>
+    <t>叶聪</t>
+  </si>
+  <si>
+    <t>420115199206113211</t>
+  </si>
+  <si>
+    <t>绿化(班组)</t>
+  </si>
+  <si>
+    <t>徐增光</t>
+  </si>
+  <si>
+    <t>411422198807181214</t>
+  </si>
+  <si>
+    <t>绿化景观班组</t>
+  </si>
+  <si>
+    <t>王琴</t>
+  </si>
+  <si>
+    <t>421122199306077822</t>
+  </si>
+  <si>
+    <t>刘玲</t>
+  </si>
+  <si>
+    <t>420202199106111220</t>
+  </si>
+  <si>
+    <t>张成</t>
+  </si>
+  <si>
+    <t>420115199306015811</t>
+  </si>
+  <si>
+    <t>夏凯</t>
+  </si>
+  <si>
+    <t>420115199110261658</t>
+  </si>
+  <si>
+    <t>杜鸿飞</t>
+  </si>
+  <si>
+    <t>420115199011055816</t>
+  </si>
+  <si>
+    <t>陈爽</t>
+  </si>
+  <si>
+    <t>420115199005230016</t>
+  </si>
+  <si>
+    <t>陈讯</t>
+  </si>
+  <si>
+    <t>420115199004085857</t>
+  </si>
+  <si>
+    <t>李裕丰</t>
+  </si>
+  <si>
+    <t>42010619910711321X</t>
+  </si>
+  <si>
+    <t>北路交安班组</t>
+  </si>
+  <si>
+    <t>汪燚</t>
+  </si>
+  <si>
+    <t>420117199212156712</t>
+  </si>
+  <si>
+    <t>李乐</t>
+  </si>
+  <si>
+    <t>420115198812303213</t>
+  </si>
+  <si>
+    <t>杨细萍</t>
+  </si>
+  <si>
+    <t>420115198502072843</t>
+  </si>
+  <si>
+    <t>林中新</t>
+  </si>
+  <si>
+    <t>420115198211023216</t>
+  </si>
+  <si>
+    <t>林学兵</t>
+  </si>
+  <si>
+    <t>420115197902263214</t>
+  </si>
+  <si>
+    <t>鑫丰瑞泰</t>
+  </si>
+  <si>
+    <t>赵丹</t>
+  </si>
+  <si>
+    <t>421083199301301626</t>
+  </si>
+  <si>
+    <t>韩飚</t>
+  </si>
+  <si>
+    <t>420621198710150054</t>
+  </si>
+  <si>
+    <t>周虹云</t>
+  </si>
+  <si>
+    <t>420204199003294944</t>
+  </si>
+  <si>
+    <t>刘世群</t>
+  </si>
+  <si>
+    <t>420122197208212824</t>
+  </si>
+  <si>
+    <t>周倩</t>
+  </si>
+  <si>
+    <t>420115199612043220</t>
+  </si>
+  <si>
+    <t>鲍翔宇</t>
+  </si>
+  <si>
+    <t>420115199511173237</t>
+  </si>
+  <si>
+    <t>叶萍</t>
+  </si>
+  <si>
+    <t>420115199403013244</t>
+  </si>
+  <si>
+    <t>桂春苗</t>
+  </si>
+  <si>
+    <t>420115199303103285</t>
+  </si>
+  <si>
+    <t>胡秋菊</t>
+  </si>
+  <si>
+    <t>420115198412243223</t>
+  </si>
+  <si>
+    <t>左宗义</t>
+  </si>
+  <si>
+    <t>420115198312223233</t>
+  </si>
+  <si>
+    <t>胡峰</t>
+  </si>
+  <si>
+    <t>420103198306224912</t>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/7/1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025/8/28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮世涛</t>
+  </si>
+  <si>
+    <t>420626197809223011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>18602778116</t>
+  </si>
+  <si>
+    <t>湖北省保康县歇马镇欧店村5组</t>
+  </si>
+  <si>
+    <t>丁粤</t>
+  </si>
+  <si>
+    <t>420625199911164719</t>
+  </si>
+  <si>
+    <t>17672800241</t>
+  </si>
+  <si>
+    <t>湖北省谷城县盛康镇竹园街社区三组</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>祝振顺</t>
+  </si>
+  <si>
+    <t>612426198508116416</t>
+  </si>
+  <si>
+    <t>15107275945</t>
+  </si>
+  <si>
+    <t>陕西省岚皋县四季乡竹园村二组</t>
+  </si>
+  <si>
+    <t>赵越</t>
+  </si>
+  <si>
+    <t>362426200508170015</t>
+  </si>
+  <si>
+    <t>15623571736</t>
+  </si>
+  <si>
+    <t>湖北省保康县马良镇马良街29号</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>赵光尧</t>
+  </si>
+  <si>
+    <t>533522197301240459</t>
+  </si>
+  <si>
+    <t>18806947728</t>
+  </si>
+  <si>
+    <t>云南省临沧市凤庆县鲁史镇宝华村委会兆二组11号</t>
   </si>
   <si>
     <t>2025-06-22</t>
   </si>
   <si>
-    <t>罗华忠</t>
-  </si>
-  <si>
-    <t>612427197908300513</t>
-  </si>
-  <si>
-    <t>15091456079</t>
-  </si>
-  <si>
-    <t>陕西省安康市平利县城关镇陈家坝村三组</t>
-  </si>
-  <si>
-    <t>付青森</t>
-  </si>
-  <si>
-    <t>612427198612262735</t>
-  </si>
-  <si>
-    <t>15889400400</t>
-  </si>
-  <si>
-    <t>陕西省平利县广佛镇广佛村二组675号</t>
-  </si>
-  <si>
-    <t>赵本田</t>
-  </si>
-  <si>
-    <t>612427197601033473</t>
-  </si>
-  <si>
-    <t>18729452282</t>
-  </si>
-  <si>
-    <t>陕西省安康市平利县广佛镇广佛村一组</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>杨山海</t>
-  </si>
-  <si>
-    <t>512926197403100572</t>
-  </si>
-  <si>
-    <t>15882600038</t>
-  </si>
-  <si>
-    <t>四川省蓬安县相如镇塔子山村7组7号</t>
-  </si>
-  <si>
-    <t>王建辉</t>
-  </si>
-  <si>
-    <t>512926196704270570</t>
-  </si>
-  <si>
-    <t>18284141029</t>
-  </si>
-  <si>
-    <t>四川省蓬安县相如镇塔子山村8组12号</t>
-  </si>
-  <si>
-    <t>孙卫东</t>
-  </si>
-  <si>
-    <t>412829197011285213</t>
-  </si>
-  <si>
-    <t>18539619685</t>
-  </si>
-  <si>
-    <t>河南省正阳县新阮店乡老王村孙庄42号</t>
-  </si>
-  <si>
-    <t>李万明</t>
-  </si>
-  <si>
-    <t>512921197507260675</t>
-  </si>
-  <si>
-    <t>18608197384</t>
-  </si>
-  <si>
-    <t>四川省蓬安县锦屏镇嘉陵村六组</t>
-  </si>
-  <si>
-    <t>胡国勇</t>
-  </si>
-  <si>
-    <t>410423197601292059</t>
-  </si>
-  <si>
-    <t>15886771671</t>
-  </si>
-  <si>
-    <t>河南省鲁山县张良镇石庙村二组2号院112号</t>
-  </si>
-  <si>
-    <t>伍小刚</t>
-  </si>
-  <si>
-    <t>512926196807124197</t>
-  </si>
-  <si>
-    <t>15281745129</t>
-  </si>
-  <si>
-    <t>四川省蓬安县利溪镇桥亭子村九组29号</t>
-  </si>
-  <si>
-    <t>2025-06-24</t>
+    <t>赵光周</t>
+  </si>
+  <si>
+    <t>533522196904160453</t>
+  </si>
+  <si>
+    <t>15987261517</t>
+  </si>
+  <si>
+    <t>云南省临沧市凤庆县鲁史镇宝华村委会兆二组2号</t>
+  </si>
+  <si>
+    <t>罗朝清</t>
+  </si>
+  <si>
+    <t>533522198008260818</t>
+  </si>
+  <si>
+    <t>18806941120</t>
+  </si>
+  <si>
+    <t>云南省临沧市凤庆县新华彝族苗族乡瓦屋村委会下村组17号</t>
+  </si>
+  <si>
+    <t>茶国孔</t>
+  </si>
+  <si>
+    <t>533522199003250818</t>
+  </si>
+  <si>
+    <t>18008836445</t>
+  </si>
+  <si>
+    <t>云南省临沧市凤庆县新华彝族苗族乡新华村委会箐头组17号</t>
+  </si>
+  <si>
+    <t>张春健</t>
+  </si>
+  <si>
+    <t>533522200401050411</t>
+  </si>
+  <si>
+    <t>18806900159</t>
+  </si>
+  <si>
+    <t>云南省临沧市凤庆县鲁史镇宝华村委会会宝一组21号</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>丁明成</t>
+  </si>
+  <si>
+    <t>420625199911064718</t>
+  </si>
+  <si>
+    <t>18327503364</t>
+  </si>
+  <si>
+    <t>湖北省谷城县南河镇汉峰村3组</t>
+  </si>
+  <si>
+    <t>宋进前</t>
+  </si>
+  <si>
+    <t>420626197208256037</t>
+  </si>
+  <si>
+    <t>15971132962</t>
+  </si>
+  <si>
+    <t>湖北省保康县两峪乡东湾村4组</t>
+  </si>
+  <si>
+    <t>朱威</t>
+  </si>
+  <si>
+    <t>410926199910112416</t>
+  </si>
+  <si>
+    <t>18238338282</t>
+  </si>
+  <si>
+    <t>河南省范县陈庄镇朱张东枣坡村6号</t>
+  </si>
+  <si>
+    <t>刘成勇</t>
+  </si>
+  <si>
+    <t>410926198301022410</t>
+  </si>
+  <si>
+    <t>17703932580</t>
+  </si>
+  <si>
+    <t>河南省范县陈庄乡刘张枣坡村82号</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>杨忠刚</t>
+  </si>
+  <si>
+    <t>410926198211262410</t>
+  </si>
+  <si>
+    <t>13629865543</t>
+  </si>
+  <si>
+    <t>河南省范县陈庄乡郭庄村81号</t>
+  </si>
+  <si>
+    <t>胡化云</t>
+  </si>
+  <si>
+    <t>410926197404242438</t>
+  </si>
+  <si>
+    <t>13721779334</t>
+  </si>
+  <si>
+    <t>河南省范县陈庄乡西胡庄村66号</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>范道彬</t>
+  </si>
+  <si>
+    <t>410926199908152419</t>
+  </si>
+  <si>
+    <t>16603936223</t>
+  </si>
+  <si>
+    <t>河南省范县陈庄乡崔胡同村55号</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>吴修翱</t>
+  </si>
+  <si>
+    <t>410926200212204474</t>
+  </si>
+  <si>
+    <t>18790953012</t>
+  </si>
+  <si>
+    <t>河南省范县陆集乡吴夏庄村1号</t>
+  </si>
+  <si>
+    <t>蒲旭东</t>
+  </si>
+  <si>
+    <t>511323199103100016</t>
+  </si>
+  <si>
+    <t>四川省蓬安县相如镇回龙沟村4组21号</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>付中秋</t>
+  </si>
+  <si>
+    <t>622725196908082916</t>
+  </si>
+  <si>
+    <t>甘肃省华亭市马峡镇蒋庄社区居委会蒋庄居民小组56号</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +660,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -953,20 +757,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,82 +1047,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="47" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="47.46484375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="36" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="47" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="47.46484375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="12.796875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="36" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5362,10 +5926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5419,28 +5983,28 @@
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>28</v>
@@ -5454,28 +6018,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -5489,28 +6053,28 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -5524,28 +6088,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>28</v>
@@ -5559,28 +6123,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>28</v>
@@ -5594,28 +6158,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>28</v>
@@ -5629,28 +6193,28 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
@@ -5664,28 +6228,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>28</v>
@@ -5699,28 +6263,28 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>28</v>
@@ -5734,28 +6298,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15926157687</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>28</v>
@@ -5769,28 +6333,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>28</v>
@@ -5804,28 +6368,28 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>28</v>
@@ -5839,28 +6403,28 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2">
-        <v>18696936830</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>28</v>
@@ -5874,28 +6438,28 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13896034473</v>
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>28</v>
@@ -5909,31 +6473,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>37</v>
+        <v>176</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>29</v>
@@ -5944,28 +6508,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>28</v>
@@ -5979,28 +6543,28 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
+        <v>184</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>28</v>
@@ -6014,28 +6578,28 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
+        <v>188</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13688221255</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>28</v>
@@ -6049,28 +6613,28 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15193358581</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>28</v>
@@ -6079,1349 +6643,19 @@
         <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2">
-        <v>15223109086</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>16</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>16</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <v>16</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>16</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>16</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
-        <v>16</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K58" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K20" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"50,60,70,80,90,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I58" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I20" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"ON_JOB,DISMISSED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J20" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"010,020,030,040,050,060,070,080,090,100,110,120,130,140,150,160,170,180,190,200,210,220,230,240,250,260,270,280,290,300,310,320,330,340,350,360,370,380,390,400,900,1000"</formula1>
     </dataValidation>
   </dataValidations>
